--- a/biology/Médecine/Preuve_empirique_en_médecine/Preuve_empirique_en_médecine.xlsx
+++ b/biology/Médecine/Preuve_empirique_en_médecine/Preuve_empirique_en_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Preuve_empirique_en_m%C3%A9decine</t>
+          <t>Preuve_empirique_en_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les preuves empiriques ou du monde réel (en anglais : Real world evidence (RWE)) en médecine désignent les preuves obtenues à partir des données du monde réel, qui sont des données d'observation obtenues en dehors du contexte des essais randomisés contrôlés (ECR) et générées au cours de la pratique clinique de routine. 
 Afin d'évaluer les résultats pour les patients et de garantir que les patients reçoivent le traitement qui leur convient, des données réelles doivent être utilisées. Les preuves empiriques sont générés en analysant les données qui sont stockées dans les dossiers de santé électroniques (DSE), les bases de données des réclamations médicales ou des activités de facturation, les registres, les données générées par les patients, les appareils mobiles, etc. Il peut être dérivé d'études d'observation rétrospectives ou prospectives et de registres d'observation. Aux États-Unis, le 21st Century Cures Act obligeait la FDA à étendre le rôle des preuves réelles.
